--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>541158.1207684133</v>
+        <v>538669.2479576792</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.2204013002516</v>
+        <v>344.2204013002517</v>
       </c>
       <c r="C11" t="n">
-        <v>326.7594514077786</v>
+        <v>186.5648888794653</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>316.1696012574541</v>
       </c>
       <c r="E11" t="n">
-        <v>42.51473053627876</v>
+        <v>343.4169297090329</v>
       </c>
       <c r="F11" t="n">
-        <v>368.3626053784824</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>372.6330561788417</v>
+        <v>372.6330561788418</v>
       </c>
       <c r="H11" t="n">
-        <v>258.3962588871427</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11.72896909311282</v>
+        <v>11.72896909311292</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>75.79628804931204</v>
+        <v>75.79628804931214</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>166.3884643413132</v>
       </c>
       <c r="U11" t="n">
-        <v>212.4997132667623</v>
+        <v>212.4997132667625</v>
       </c>
       <c r="V11" t="n">
-        <v>289.2388181069059</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W11" t="n">
-        <v>310.727528354184</v>
+        <v>310.7275283541841</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>331.2176603152402</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.7244982928246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128.0197432866383</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>134.1950586250867</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>108.9316252014098</v>
+        <v>108.9316252014099</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>106.555772030155</v>
       </c>
       <c r="G12" t="n">
-        <v>135.1197321935187</v>
+        <v>96.60629183028981</v>
       </c>
       <c r="H12" t="n">
         <v>90.75836308184009</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.609766986073083</v>
       </c>
       <c r="S12" t="n">
         <v>130.377340636095</v>
       </c>
       <c r="T12" t="n">
-        <v>191.2013147161072</v>
+        <v>170.7153176185797</v>
       </c>
       <c r="U12" t="n">
         <v>225.7950804382319</v>
@@ -1509,10 +1509,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>213.1815427976906</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>192.8967550920232</v>
+        <v>167.2595448402486</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.3185398187083</v>
+        <v>141.3185398187084</v>
       </c>
       <c r="C13" t="n">
-        <v>128.7333807353988</v>
+        <v>128.733380735399</v>
       </c>
       <c r="D13" t="n">
-        <v>110.1020326549834</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>86.93907621114296</v>
+        <v>106.9076076597024</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>96.05240074138695</v>
       </c>
       <c r="H13" t="n">
-        <v>107.1379958601997</v>
+        <v>107.1379958601998</v>
       </c>
       <c r="I13" t="n">
-        <v>60.87104721483893</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.95214767987306</v>
       </c>
       <c r="S13" t="n">
-        <v>153.012680724409</v>
+        <v>153.0126807244091</v>
       </c>
       <c r="T13" t="n">
-        <v>181.4663044295871</v>
+        <v>181.4663044295872</v>
       </c>
       <c r="U13" t="n">
-        <v>247.7038973596177</v>
+        <v>247.7038973596178</v>
       </c>
       <c r="V13" t="n">
-        <v>213.624202960599</v>
+        <v>213.6242029605991</v>
       </c>
       <c r="W13" t="n">
-        <v>248.009557973362</v>
+        <v>248.0095579733621</v>
       </c>
       <c r="X13" t="n">
-        <v>187.1962150258082</v>
+        <v>187.1962150258083</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.0712129888658</v>
+        <v>180.0712129888659</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>344.2204013002519</v>
+        <v>344.2204013002516</v>
       </c>
       <c r="C14" t="n">
-        <v>314.4782081097177</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>316.1696012574543</v>
+        <v>316.169601257454</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>368.3626053784825</v>
       </c>
       <c r="G14" t="n">
-        <v>372.633056178842</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>258.3962588871431</v>
+        <v>258.3962588871428</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.79628804931235</v>
+        <v>75.7962880493121</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>106.2489456433169</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>212.4997132667624</v>
       </c>
       <c r="V14" t="n">
-        <v>289.2388181069063</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W14" t="n">
-        <v>310.7275283541844</v>
+        <v>310.7275283541841</v>
       </c>
       <c r="X14" t="n">
-        <v>331.2176603152404</v>
+        <v>331.2176603152401</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.7244982928249</v>
+        <v>347.7244982928246</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>128.0197432866387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>134.1950586250871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>108.9316252014098</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>106.5557720301549</v>
       </c>
       <c r="G15" t="n">
-        <v>122.2435020820631</v>
+        <v>96.60629183028976</v>
       </c>
       <c r="H15" t="n">
-        <v>52.24492271861142</v>
+        <v>90.75836308184009</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.02744326570109</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.609766986073083</v>
       </c>
       <c r="S15" t="n">
         <v>130.377340636095</v>
@@ -1743,16 +1743,16 @@
         <v>225.7950804382319</v>
       </c>
       <c r="V15" t="n">
-        <v>194.2871467861966</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>213.1815427976907</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>167.1692554140754</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.3185398187086</v>
+        <v>141.3185398187084</v>
       </c>
       <c r="C16" t="n">
-        <v>128.7333807353992</v>
+        <v>128.7333807353989</v>
       </c>
       <c r="D16" t="n">
-        <v>110.1020326549837</v>
+        <v>110.1020326549834</v>
       </c>
       <c r="E16" t="n">
-        <v>107.9205222833405</v>
+        <v>107.9205222833402</v>
       </c>
       <c r="F16" t="n">
-        <v>106.9076076597026</v>
+        <v>92.07544932296591</v>
       </c>
       <c r="G16" t="n">
-        <v>127.613192378419</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>107.1379958602</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.87104721483924</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.95214767987328</v>
+        <v>54.95214767987302</v>
       </c>
       <c r="S16" t="n">
-        <v>24.02459136379716</v>
+        <v>153.012680724409</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>181.4663044295872</v>
       </c>
       <c r="U16" t="n">
-        <v>247.703897359618</v>
+        <v>247.7038973596177</v>
       </c>
       <c r="V16" t="n">
-        <v>213.6242029605993</v>
+        <v>213.6242029605991</v>
       </c>
       <c r="W16" t="n">
-        <v>248.0095579733623</v>
+        <v>248.0095579733621</v>
       </c>
       <c r="X16" t="n">
-        <v>187.1962150258085</v>
+        <v>187.1962150258082</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.0712129888661</v>
+        <v>180.0712129888659</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353756</v>
+        <v>10.49808354999105</v>
       </c>
       <c r="C17" t="n">
         <v>267.5881715429026</v>
@@ -1856,7 +1856,7 @@
         <v>309.1913255136064</v>
       </c>
       <c r="G17" t="n">
-        <v>55.53574661301637</v>
+        <v>313.4617763139657</v>
       </c>
       <c r="H17" t="n">
         <v>199.2249790222667</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>16.62500818443603</v>
       </c>
       <c r="T17" t="n">
         <v>107.2171844764371</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>97.28791231360208</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>75.02377876021073</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>49.76034533653375</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.609766986073083</v>
       </c>
       <c r="S18" t="n">
         <v>130.377340636095</v>
@@ -1983,7 +1983,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>174.8399448385812</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2081,7 +2081,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C20" t="n">
-        <v>9.662141841953412</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D20" t="n">
         <v>256.998321392578</v>
@@ -2093,7 +2093,7 @@
         <v>309.1913255136064</v>
       </c>
       <c r="G20" t="n">
-        <v>313.4617763139657</v>
+        <v>38.91073842858127</v>
       </c>
       <c r="H20" t="n">
         <v>199.2249790222667</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>16.62500818443603</v>
       </c>
       <c r="T20" t="n">
         <v>107.2171844764371</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.67814532752898</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2166,7 +2166,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>59.96036022729594</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2175,7 +2175,7 @@
         <v>135.1197321935187</v>
       </c>
       <c r="H21" t="n">
-        <v>90.75836308184009</v>
+        <v>13.90332475950161</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>130.377340636095</v>
       </c>
       <c r="T21" t="n">
-        <v>93.51659448800216</v>
+        <v>191.2013147161072</v>
       </c>
       <c r="U21" t="n">
         <v>225.7950804382319</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T23" t="n">
         <v>106.2332499115151</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>323.5625617986046</v>
+        <v>323.5625617986045</v>
       </c>
       <c r="C26" t="n">
-        <v>306.1016119061316</v>
+        <v>306.1016119061315</v>
       </c>
       <c r="D26" t="n">
-        <v>295.511761755807</v>
+        <v>295.5117617558069</v>
       </c>
       <c r="E26" t="n">
-        <v>322.7590902073858</v>
+        <v>322.7590902073857</v>
       </c>
       <c r="F26" t="n">
         <v>347.7047658768354</v>
       </c>
       <c r="G26" t="n">
-        <v>351.7504457885775</v>
+        <v>351.7504457885774</v>
       </c>
       <c r="H26" t="n">
         <v>235.4364845224444</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.01648192329982</v>
+        <v>50.01648192329979</v>
       </c>
       <c r="T26" t="n">
         <v>144.7466902747441</v>
@@ -2612,7 +2612,7 @@
         <v>191.823892094026</v>
       </c>
       <c r="V26" t="n">
-        <v>268.5809786052589</v>
+        <v>268.5809786052588</v>
       </c>
       <c r="W26" t="n">
         <v>290.069688852537</v>
@@ -2621,7 +2621,7 @@
         <v>310.559820813593</v>
       </c>
       <c r="Y26" t="n">
-        <v>327.0666587911776</v>
+        <v>327.0666587911775</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2691,7 +2691,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494243</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2716,22 +2716,22 @@
         <v>108.0755412337518</v>
       </c>
       <c r="D28" t="n">
-        <v>89.44419315333633</v>
+        <v>89.44419315333631</v>
       </c>
       <c r="E28" t="n">
-        <v>87.26268278169314</v>
+        <v>87.26268278169313</v>
       </c>
       <c r="F28" t="n">
-        <v>86.24976815805522</v>
+        <v>86.2497681580552</v>
       </c>
       <c r="G28" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H28" t="n">
-        <v>85.58373504944475</v>
+        <v>85.58373504944474</v>
       </c>
       <c r="I28" t="n">
-        <v>37.18114054496208</v>
+        <v>37.18114054496206</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.76087280517132</v>
+        <v>29.76087280517129</v>
       </c>
       <c r="S28" t="n">
-        <v>130.5977454665659</v>
+        <v>130.5977454665658</v>
       </c>
       <c r="T28" t="n">
-        <v>160.3776694112932</v>
+        <v>160.3776694112931</v>
       </c>
       <c r="U28" t="n">
         <v>227.0405583407368</v>
       </c>
       <c r="V28" t="n">
-        <v>192.966363458952</v>
+        <v>192.9663634589519</v>
       </c>
       <c r="W28" t="n">
-        <v>227.351718471715</v>
+        <v>227.3517184717149</v>
       </c>
       <c r="X28" t="n">
         <v>166.5383755241611</v>
       </c>
       <c r="Y28" t="n">
-        <v>159.4133734872188</v>
+        <v>159.4133734872187</v>
       </c>
     </row>
     <row r="29">
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>323.5625617986045</v>
+        <v>323.5625617986046</v>
       </c>
       <c r="C29" t="n">
-        <v>306.1016119061315</v>
+        <v>306.1016119061316</v>
       </c>
       <c r="D29" t="n">
-        <v>295.5117617558069</v>
+        <v>295.511761755807</v>
       </c>
       <c r="E29" t="n">
-        <v>322.7590902073857</v>
+        <v>322.7590902073858</v>
       </c>
       <c r="F29" t="n">
         <v>347.7047658768354</v>
       </c>
       <c r="G29" t="n">
-        <v>351.7504457885774</v>
+        <v>351.7504457885764</v>
       </c>
       <c r="H29" t="n">
         <v>235.4364845224444</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.01648192329976</v>
+        <v>50.01648192329981</v>
       </c>
       <c r="T29" t="n">
         <v>144.7466902747441</v>
       </c>
       <c r="U29" t="n">
-        <v>191.8238920940259</v>
+        <v>191.823892094026</v>
       </c>
       <c r="V29" t="n">
-        <v>268.5809786052588</v>
+        <v>268.5809786052589</v>
       </c>
       <c r="W29" t="n">
         <v>290.069688852537</v>
@@ -2858,7 +2858,7 @@
         <v>310.559820813593</v>
       </c>
       <c r="Y29" t="n">
-        <v>327.0666587911784</v>
+        <v>327.0666587911776</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.6607003170612</v>
+        <v>120.6607003170613</v>
       </c>
       <c r="C31" t="n">
         <v>108.0755412337518</v>
       </c>
       <c r="D31" t="n">
-        <v>89.44419315333629</v>
+        <v>89.44419315333633</v>
       </c>
       <c r="E31" t="n">
-        <v>87.2626827816931</v>
+        <v>87.26268278169314</v>
       </c>
       <c r="F31" t="n">
-        <v>86.24976815805518</v>
+        <v>86.24976815805522</v>
       </c>
       <c r="G31" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H31" t="n">
-        <v>85.58373504944471</v>
+        <v>85.58373504944475</v>
       </c>
       <c r="I31" t="n">
-        <v>37.18114054496204</v>
+        <v>37.18114054496207</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.76087280517127</v>
+        <v>29.7608728051713</v>
       </c>
       <c r="S31" t="n">
-        <v>130.5977454665658</v>
+        <v>130.5977454665659</v>
       </c>
       <c r="T31" t="n">
-        <v>160.3776694112931</v>
+        <v>160.3776694112932</v>
       </c>
       <c r="U31" t="n">
         <v>227.0405583407368</v>
       </c>
       <c r="V31" t="n">
-        <v>192.9663634589519</v>
+        <v>192.966363458952</v>
       </c>
       <c r="W31" t="n">
-        <v>227.3517184717149</v>
+        <v>227.351718471715</v>
       </c>
       <c r="X31" t="n">
         <v>166.5383755241611</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.4133734872187</v>
+        <v>159.4133734872188</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>323.5625617986045</v>
+        <v>323.5625617986046</v>
       </c>
       <c r="C32" t="n">
-        <v>306.1016119061314</v>
+        <v>306.1016119061316</v>
       </c>
       <c r="D32" t="n">
-        <v>295.5117617558069</v>
+        <v>295.511761755807</v>
       </c>
       <c r="E32" t="n">
-        <v>322.7590902073857</v>
+        <v>322.7590902073858</v>
       </c>
       <c r="F32" t="n">
-        <v>347.7047658768354</v>
+        <v>347.7047658768355</v>
       </c>
       <c r="G32" t="n">
-        <v>351.7504457885774</v>
+        <v>351.7504457885775</v>
       </c>
       <c r="H32" t="n">
-        <v>235.4364845224444</v>
+        <v>235.4364845224445</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.01648192329976</v>
+        <v>50.01648192329986</v>
       </c>
       <c r="T32" t="n">
-        <v>144.7466902747441</v>
+        <v>144.7466902747442</v>
       </c>
       <c r="U32" t="n">
-        <v>191.8238920940259</v>
+        <v>191.823892094026</v>
       </c>
       <c r="V32" t="n">
-        <v>268.5809786052588</v>
+        <v>268.5809786052589</v>
       </c>
       <c r="W32" t="n">
-        <v>290.069688852537</v>
+        <v>290.0696888525371</v>
       </c>
       <c r="X32" t="n">
-        <v>310.559820813593</v>
+        <v>310.5598208135931</v>
       </c>
       <c r="Y32" t="n">
-        <v>327.0666587911775</v>
+        <v>327.0666587911776</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>120.6607003170612</v>
+        <v>120.6607003170613</v>
       </c>
       <c r="C34" t="n">
-        <v>108.0755412337517</v>
+        <v>108.0755412337519</v>
       </c>
       <c r="D34" t="n">
-        <v>89.44419315333627</v>
+        <v>89.44419315333639</v>
       </c>
       <c r="E34" t="n">
-        <v>87.26268278169309</v>
+        <v>87.2626827816932</v>
       </c>
       <c r="F34" t="n">
-        <v>86.24976815805516</v>
+        <v>86.24976815805528</v>
       </c>
       <c r="G34" t="n">
-        <v>106.8545283941521</v>
+        <v>106.8545283941523</v>
       </c>
       <c r="H34" t="n">
-        <v>85.5837350494447</v>
+        <v>85.58373504944481</v>
       </c>
       <c r="I34" t="n">
-        <v>37.18114054496203</v>
+        <v>37.18114054496213</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>29.76087280517126</v>
+        <v>29.76087280517136</v>
       </c>
       <c r="S34" t="n">
-        <v>130.5977454665658</v>
+        <v>130.5977454665659</v>
       </c>
       <c r="T34" t="n">
-        <v>160.3776694112931</v>
+        <v>160.3776694112932</v>
       </c>
       <c r="U34" t="n">
-        <v>227.0405583407368</v>
+        <v>227.0405583407369</v>
       </c>
       <c r="V34" t="n">
-        <v>192.9663634589519</v>
+        <v>192.966363458952</v>
       </c>
       <c r="W34" t="n">
-        <v>227.3517184717149</v>
+        <v>227.351718471715</v>
       </c>
       <c r="X34" t="n">
-        <v>166.5383755241611</v>
+        <v>166.5383755241612</v>
       </c>
       <c r="Y34" t="n">
-        <v>159.4133734872187</v>
+        <v>159.4133734872188</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3357,7 +3357,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657083</v>
       </c>
       <c r="H36" t="n">
         <v>89.59687541851115</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429028</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925782</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136067</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253487</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592157</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007108</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115154</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307972</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503643</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383253</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052307</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010759</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846441</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482648</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092346</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621602</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333713</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480644</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775081</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609324</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.89993312399</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429028</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925782</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136067</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253487</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592157</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007108</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115154</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307972</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420301</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893082</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503643</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3825,7 +3825,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3876,7 +3876,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V42" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383253</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052307</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010759</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846441</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482648</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092346</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621602</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333713</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480644</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775081</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957232</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084862</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609324</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.89993312399</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600708</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
         <v>230.0675382420299</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383225</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052278</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010731</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846412</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F46" t="n">
-        <v>47.7363277948262</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092317</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621573</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,10 +4198,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1455.36921916001</v>
+        <v>1303.973636974424</v>
       </c>
       <c r="C11" t="n">
-        <v>1125.309167232961</v>
+        <v>1115.524254267894</v>
       </c>
       <c r="D11" t="n">
-        <v>1125.309167232961</v>
+        <v>796.1610206745057</v>
       </c>
       <c r="E11" t="n">
-        <v>1082.364994974093</v>
+        <v>449.275233089624</v>
       </c>
       <c r="F11" t="n">
-        <v>710.2815551978485</v>
+        <v>449.275233089624</v>
       </c>
       <c r="G11" t="n">
-        <v>333.884528754574</v>
+        <v>72.87820664634943</v>
       </c>
       <c r="H11" t="n">
-        <v>72.87820664634904</v>
+        <v>72.87820664634943</v>
       </c>
       <c r="I11" t="n">
         <v>61.03076311795253</v>
@@ -5045,7 +5045,7 @@
         <v>536.5371081174112</v>
       </c>
       <c r="L11" t="n">
-        <v>952.4554946804105</v>
+        <v>952.4554946804103</v>
       </c>
       <c r="M11" t="n">
         <v>1446.914276069383</v>
@@ -5069,22 +5069,22 @@
         <v>2974.976248777109</v>
       </c>
       <c r="T11" t="n">
-        <v>2974.976248777109</v>
+        <v>2806.907092876792</v>
       </c>
       <c r="U11" t="n">
-        <v>2760.330073760178</v>
+        <v>2592.26091785986</v>
       </c>
       <c r="V11" t="n">
-        <v>2468.16965142997</v>
+        <v>2300.100495529652</v>
       </c>
       <c r="W11" t="n">
-        <v>2154.303461173218</v>
+        <v>1986.234305272901</v>
       </c>
       <c r="X11" t="n">
-        <v>2154.303461173218</v>
+        <v>1651.671012025183</v>
       </c>
       <c r="Y11" t="n">
-        <v>1803.066594210769</v>
+        <v>1651.671012025183</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>840.5449772095083</v>
+        <v>801.6425121961458</v>
       </c>
       <c r="C12" t="n">
-        <v>704.9944129417438</v>
+        <v>627.1894829150189</v>
       </c>
       <c r="D12" t="n">
-        <v>594.9624682938552</v>
+        <v>517.1575382671301</v>
       </c>
       <c r="E12" t="n">
-        <v>435.7250132883997</v>
+        <v>357.9200832616747</v>
       </c>
       <c r="F12" t="n">
-        <v>289.1904553152847</v>
+        <v>250.2879903019222</v>
       </c>
       <c r="G12" t="n">
         <v>152.7058773420334</v>
@@ -5142,28 +5142,28 @@
         <v>2375.85311851609</v>
       </c>
       <c r="R12" t="n">
-        <v>2375.85311851609</v>
+        <v>2368.166485196824</v>
       </c>
       <c r="S12" t="n">
-        <v>2244.158835045287</v>
+        <v>2236.472201726021</v>
       </c>
       <c r="T12" t="n">
-        <v>2051.026193917906</v>
+        <v>2064.032486959779</v>
       </c>
       <c r="U12" t="n">
-        <v>1822.950355091409</v>
+        <v>1835.956648133282</v>
       </c>
       <c r="V12" t="n">
-        <v>1587.798246859666</v>
+        <v>1600.80453990154</v>
       </c>
       <c r="W12" t="n">
-        <v>1372.463355144827</v>
+        <v>1346.567183173338</v>
       </c>
       <c r="X12" t="n">
         <v>1177.618147981168</v>
       </c>
       <c r="Y12" t="n">
-        <v>969.8578492162137</v>
+        <v>969.8578492162139</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.8020082457938</v>
+        <v>504.2947883671326</v>
       </c>
       <c r="C13" t="n">
-        <v>429.7682903312495</v>
+        <v>374.2610704525882</v>
       </c>
       <c r="D13" t="n">
-        <v>318.5541159322773</v>
+        <v>374.2610704525882</v>
       </c>
       <c r="E13" t="n">
-        <v>318.5541159322773</v>
+        <v>374.2610704525882</v>
       </c>
       <c r="F13" t="n">
-        <v>230.7368672341531</v>
+        <v>266.2735879680401</v>
       </c>
       <c r="G13" t="n">
-        <v>230.7368672341531</v>
+        <v>169.2509609565382</v>
       </c>
       <c r="H13" t="n">
-        <v>122.5166693955676</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="I13" t="n">
         <v>61.03076311795253</v>
       </c>
       <c r="J13" t="n">
-        <v>137.2246935124987</v>
+        <v>137.2246935124986</v>
       </c>
       <c r="K13" t="n">
-        <v>367.7433504300777</v>
+        <v>367.7433504300775</v>
       </c>
       <c r="L13" t="n">
-        <v>707.591502539338</v>
+        <v>707.5915025393376</v>
       </c>
       <c r="M13" t="n">
         <v>1074.230205114212</v>
       </c>
       <c r="N13" t="n">
-        <v>1438.492281136269</v>
+        <v>1438.492281136268</v>
       </c>
       <c r="O13" t="n">
-        <v>1761.841614514368</v>
+        <v>1761.841614514367</v>
       </c>
       <c r="P13" t="n">
         <v>2020.505100656696</v>
       </c>
       <c r="Q13" t="n">
-        <v>2127.885453984135</v>
+        <v>2127.885453984134</v>
       </c>
       <c r="R13" t="n">
-        <v>2127.885453984135</v>
+        <v>2072.378234105474</v>
       </c>
       <c r="S13" t="n">
-        <v>1973.327190626145</v>
+        <v>1917.819970747485</v>
       </c>
       <c r="T13" t="n">
-        <v>1790.027893222522</v>
+        <v>1734.520673343862</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.821936293615</v>
+        <v>1484.314716414955</v>
       </c>
       <c r="V13" t="n">
-        <v>1324.039913101091</v>
+        <v>1268.53269322243</v>
       </c>
       <c r="W13" t="n">
-        <v>1073.525208077493</v>
+        <v>1018.017988198832</v>
       </c>
       <c r="X13" t="n">
-        <v>884.4381221928384</v>
+        <v>828.9309023141774</v>
       </c>
       <c r="Y13" t="n">
-        <v>702.5480080626709</v>
+        <v>647.0407881840098</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1335.452100929222</v>
+        <v>1013.48375859581</v>
       </c>
       <c r="C14" t="n">
-        <v>1017.797345262841</v>
+        <v>1013.48375859581</v>
       </c>
       <c r="D14" t="n">
-        <v>698.4341116694526</v>
+        <v>694.1205250024225</v>
       </c>
       <c r="E14" t="n">
-        <v>698.4341116694526</v>
+        <v>694.1205250024225</v>
       </c>
       <c r="F14" t="n">
-        <v>698.4341116694526</v>
+        <v>322.0370852261776</v>
       </c>
       <c r="G14" t="n">
-        <v>322.0370852261778</v>
+        <v>322.0370852261776</v>
       </c>
       <c r="H14" t="n">
         <v>61.03076311795253</v>
@@ -5279,19 +5279,19 @@
         <v>231.0235173512797</v>
       </c>
       <c r="K14" t="n">
-        <v>536.5371081174112</v>
+        <v>536.537108117411</v>
       </c>
       <c r="L14" t="n">
-        <v>952.4554946804114</v>
+        <v>952.4554946804103</v>
       </c>
       <c r="M14" t="n">
-        <v>1446.914276069384</v>
+        <v>1446.914276069383</v>
       </c>
       <c r="N14" t="n">
-        <v>1953.987725860804</v>
+        <v>1953.987725860803</v>
       </c>
       <c r="O14" t="n">
-        <v>2419.467544341229</v>
+        <v>2419.467544341228</v>
       </c>
       <c r="P14" t="n">
         <v>2782.242799299105</v>
@@ -5306,22 +5306,22 @@
         <v>2974.976248777109</v>
       </c>
       <c r="T14" t="n">
-        <v>2974.976248777109</v>
+        <v>2867.654081460627</v>
       </c>
       <c r="U14" t="n">
-        <v>2974.976248777109</v>
+        <v>2653.007906443695</v>
       </c>
       <c r="V14" t="n">
-        <v>2682.815826446901</v>
+        <v>2360.847484113488</v>
       </c>
       <c r="W14" t="n">
-        <v>2368.949636190149</v>
+        <v>2046.981293856736</v>
       </c>
       <c r="X14" t="n">
-        <v>2034.386342942431</v>
+        <v>1712.418000609019</v>
       </c>
       <c r="Y14" t="n">
-        <v>1683.149475979982</v>
+        <v>1361.18113364657</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>827.5386841676345</v>
+        <v>819.8520508483691</v>
       </c>
       <c r="C15" t="n">
-        <v>691.9881198998698</v>
+        <v>645.3990215672421</v>
       </c>
       <c r="D15" t="n">
-        <v>543.0537102386186</v>
+        <v>535.3670769193534</v>
       </c>
       <c r="E15" t="n">
-        <v>383.8162552331631</v>
+        <v>376.1296219138979</v>
       </c>
       <c r="F15" t="n">
-        <v>237.281697260048</v>
+        <v>268.4975289541454</v>
       </c>
       <c r="G15" t="n">
-        <v>113.8034123286711</v>
+        <v>170.9154159942568</v>
       </c>
       <c r="H15" t="n">
-        <v>61.03076311795253</v>
+        <v>79.24030177017586</v>
       </c>
       <c r="I15" t="n">
         <v>61.03076311795253</v>
@@ -5379,28 +5379,28 @@
         <v>2375.85311851609</v>
       </c>
       <c r="R15" t="n">
-        <v>2375.85311851609</v>
+        <v>2368.166485196824</v>
       </c>
       <c r="S15" t="n">
-        <v>2244.158835045287</v>
+        <v>2236.472201726021</v>
       </c>
       <c r="T15" t="n">
-        <v>2051.026193917906</v>
+        <v>2043.33956059864</v>
       </c>
       <c r="U15" t="n">
-        <v>1822.950355091409</v>
+        <v>1815.263721772143</v>
       </c>
       <c r="V15" t="n">
-        <v>1626.700711873028</v>
+        <v>1580.1116135404</v>
       </c>
       <c r="W15" t="n">
-        <v>1372.463355144827</v>
+        <v>1364.776721825561</v>
       </c>
       <c r="X15" t="n">
-        <v>1164.611854939294</v>
+        <v>1156.925221620028</v>
       </c>
       <c r="Y15" t="n">
-        <v>956.8515561743402</v>
+        <v>988.0673878684371</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>817.8850851249066</v>
+        <v>504.2947883671329</v>
       </c>
       <c r="C16" t="n">
-        <v>687.851367210362</v>
+        <v>374.2610704525886</v>
       </c>
       <c r="D16" t="n">
-        <v>576.6371928113886</v>
+        <v>263.0468960536155</v>
       </c>
       <c r="E16" t="n">
-        <v>467.6265642423577</v>
+        <v>154.0362674845848</v>
       </c>
       <c r="F16" t="n">
-        <v>359.6390817578093</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="G16" t="n">
-        <v>230.7368672341537</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="H16" t="n">
-        <v>122.5166693955679</v>
+        <v>61.03076311795253</v>
       </c>
       <c r="I16" t="n">
         <v>61.03076311795253</v>
       </c>
       <c r="J16" t="n">
-        <v>137.2246935124983</v>
+        <v>137.2246935124988</v>
       </c>
       <c r="K16" t="n">
-        <v>367.743350430077</v>
+        <v>367.7433504300778</v>
       </c>
       <c r="L16" t="n">
-        <v>707.5915025393369</v>
+        <v>707.5915025393381</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.230205114211</v>
+        <v>1074.230205114212</v>
       </c>
       <c r="N16" t="n">
-        <v>1438.492281136267</v>
+        <v>1438.492281136269</v>
       </c>
       <c r="O16" t="n">
-        <v>1761.841614514366</v>
+        <v>1761.841614514368</v>
       </c>
       <c r="P16" t="n">
-        <v>2020.505100656694</v>
+        <v>2020.505100656696</v>
       </c>
       <c r="Q16" t="n">
-        <v>2127.885453984132</v>
+        <v>2127.885453984134</v>
       </c>
       <c r="R16" t="n">
-        <v>2072.378234105472</v>
+        <v>2072.378234105474</v>
       </c>
       <c r="S16" t="n">
-        <v>2048.110970101637</v>
+        <v>1917.819970747486</v>
       </c>
       <c r="T16" t="n">
-        <v>2048.110970101637</v>
+        <v>1734.520673343862</v>
       </c>
       <c r="U16" t="n">
-        <v>1797.90501317273</v>
+        <v>1484.314716414955</v>
       </c>
       <c r="V16" t="n">
-        <v>1582.122989980205</v>
+        <v>1268.53269322243</v>
       </c>
       <c r="W16" t="n">
-        <v>1331.608284956607</v>
+        <v>1018.017988198833</v>
       </c>
       <c r="X16" t="n">
-        <v>1142.521199071952</v>
+        <v>828.9309023141777</v>
       </c>
       <c r="Y16" t="n">
-        <v>960.631084941784</v>
+        <v>647.0407881840101</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1447.68146405586</v>
+        <v>1708.21280718813</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.390381689291</v>
+        <v>1437.921724821562</v>
       </c>
       <c r="D17" t="n">
-        <v>917.7961176563841</v>
+        <v>1178.327460788655</v>
       </c>
       <c r="E17" t="n">
-        <v>630.6792996319833</v>
+        <v>891.2106427642543</v>
       </c>
       <c r="F17" t="n">
-        <v>318.3648294162192</v>
+        <v>578.8961725484902</v>
       </c>
       <c r="G17" t="n">
         <v>262.2681156656967</v>
@@ -5513,52 +5513,52 @@
         <v>61.03076311795253</v>
       </c>
       <c r="J17" t="n">
-        <v>231.023517351279</v>
+        <v>231.0235173512797</v>
       </c>
       <c r="K17" t="n">
-        <v>536.5371081174108</v>
+        <v>536.5371081174117</v>
       </c>
       <c r="L17" t="n">
-        <v>952.4554946804101</v>
+        <v>952.4554946804114</v>
       </c>
       <c r="M17" t="n">
-        <v>1446.914276069383</v>
+        <v>1446.914276069384</v>
       </c>
       <c r="N17" t="n">
-        <v>1953.987725860803</v>
+        <v>1953.987725860804</v>
       </c>
       <c r="O17" t="n">
-        <v>2419.467544341228</v>
+        <v>2419.467544341229</v>
       </c>
       <c r="P17" t="n">
-        <v>2782.242799299105</v>
+        <v>2782.242799299106</v>
       </c>
       <c r="Q17" t="n">
-        <v>3006.499161029605</v>
+        <v>3006.499161029606</v>
       </c>
       <c r="R17" t="n">
         <v>3051.538155897626</v>
       </c>
       <c r="S17" t="n">
-        <v>3051.538155897626</v>
+        <v>3034.74521833759</v>
       </c>
       <c r="T17" t="n">
-        <v>2943.237969557791</v>
+        <v>2926.445031997755</v>
       </c>
       <c r="U17" t="n">
-        <v>2788.36076410134</v>
+        <v>2771.567826541303</v>
       </c>
       <c r="V17" t="n">
-        <v>2555.969311331613</v>
+        <v>2539.176373771576</v>
       </c>
       <c r="W17" t="n">
-        <v>2301.872090635342</v>
+        <v>2285.079153075305</v>
       </c>
       <c r="X17" t="n">
-        <v>2027.077766948106</v>
+        <v>2010.28482938807</v>
       </c>
       <c r="Y17" t="n">
-        <v>1735.609869546138</v>
+        <v>1718.816931986101</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>819.67847266239</v>
+        <v>819.6784726623899</v>
       </c>
       <c r="C18" t="n">
-        <v>743.8968779551064</v>
+        <v>645.2254433812629</v>
       </c>
       <c r="D18" t="n">
         <v>594.9624682938552</v>
@@ -5616,28 +5616,28 @@
         <v>2375.85311851609</v>
       </c>
       <c r="R18" t="n">
-        <v>2375.85311851609</v>
+        <v>2368.166485196824</v>
       </c>
       <c r="S18" t="n">
-        <v>2244.158835045287</v>
+        <v>2236.472201726021</v>
       </c>
       <c r="T18" t="n">
-        <v>2051.026193917906</v>
+        <v>2043.33956059864</v>
       </c>
       <c r="U18" t="n">
-        <v>1822.950355091409</v>
+        <v>1815.263721772143</v>
       </c>
       <c r="V18" t="n">
-        <v>1587.798246859666</v>
+        <v>1580.1116135404</v>
       </c>
       <c r="W18" t="n">
-        <v>1333.560890131465</v>
+        <v>1403.505608652945</v>
       </c>
       <c r="X18" t="n">
-        <v>1125.709389925932</v>
+        <v>1195.654108447412</v>
       </c>
       <c r="Y18" t="n">
-        <v>917.949091160978</v>
+        <v>987.8938096824579</v>
       </c>
     </row>
     <row r="19">
@@ -5677,16 +5677,16 @@
         <v>345.9262769718301</v>
       </c>
       <c r="L19" t="n">
-        <v>579.5314538593897</v>
+        <v>486.7961685953547</v>
       </c>
       <c r="M19" t="n">
-        <v>828.0251592001403</v>
+        <v>735.2898739361053</v>
       </c>
       <c r="N19" t="n">
-        <v>984.0593895865825</v>
+        <v>988.0319773483716</v>
       </c>
       <c r="O19" t="n">
-        <v>1204.577040328685</v>
+        <v>1208.549628090474</v>
       </c>
       <c r="P19" t="n">
         <v>1388.16359585634</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1447.681464055859</v>
+        <v>1430.888526495823</v>
       </c>
       <c r="C20" t="n">
-        <v>1437.921724821562</v>
+        <v>1160.597444129255</v>
       </c>
       <c r="D20" t="n">
-        <v>1178.327460788655</v>
+        <v>901.0031800963478</v>
       </c>
       <c r="E20" t="n">
-        <v>891.2106427642544</v>
+        <v>613.886362071947</v>
       </c>
       <c r="F20" t="n">
-        <v>578.8961725484903</v>
+        <v>301.5718918561829</v>
       </c>
       <c r="G20" t="n">
         <v>262.2681156656967</v>
@@ -5750,25 +5750,25 @@
         <v>61.03076311795253</v>
       </c>
       <c r="J20" t="n">
-        <v>231.0235173512797</v>
+        <v>231.0235173512789</v>
       </c>
       <c r="K20" t="n">
-        <v>536.5371081174112</v>
+        <v>536.5371081174105</v>
       </c>
       <c r="L20" t="n">
-        <v>952.4554946804114</v>
+        <v>952.45549468041</v>
       </c>
       <c r="M20" t="n">
-        <v>1446.914276069384</v>
+        <v>1446.914276069383</v>
       </c>
       <c r="N20" t="n">
-        <v>1953.987725860804</v>
+        <v>1953.987725860803</v>
       </c>
       <c r="O20" t="n">
         <v>2419.467544341229</v>
       </c>
       <c r="P20" t="n">
-        <v>2782.242799299105</v>
+        <v>2782.242799299106</v>
       </c>
       <c r="Q20" t="n">
         <v>3006.499161029605</v>
@@ -5777,25 +5777,25 @@
         <v>3051.538155897626</v>
       </c>
       <c r="S20" t="n">
-        <v>3051.538155897626</v>
+        <v>3034.74521833759</v>
       </c>
       <c r="T20" t="n">
-        <v>2943.237969557791</v>
+        <v>2926.445031997755</v>
       </c>
       <c r="U20" t="n">
-        <v>2788.36076410134</v>
+        <v>2771.567826541304</v>
       </c>
       <c r="V20" t="n">
-        <v>2555.969311331613</v>
+        <v>2539.176373771577</v>
       </c>
       <c r="W20" t="n">
-        <v>2301.872090635342</v>
+        <v>2285.079153075307</v>
       </c>
       <c r="X20" t="n">
-        <v>2027.077766948105</v>
+        <v>2010.28482938807</v>
       </c>
       <c r="Y20" t="n">
-        <v>1735.609869546137</v>
+        <v>1718.816931986102</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>918.3499072362334</v>
+        <v>742.0471208216441</v>
       </c>
       <c r="C21" t="n">
-        <v>743.8968779551064</v>
+        <v>567.5940915405171</v>
       </c>
       <c r="D21" t="n">
-        <v>594.9624682938552</v>
+        <v>418.6596818792658</v>
       </c>
       <c r="E21" t="n">
-        <v>435.7250132883997</v>
+        <v>358.0936614476537</v>
       </c>
       <c r="F21" t="n">
-        <v>289.1904553152847</v>
+        <v>211.5591034745387</v>
       </c>
       <c r="G21" t="n">
-        <v>152.7058773420334</v>
+        <v>75.0745255012875</v>
       </c>
       <c r="H21" t="n">
         <v>61.03076311795253</v>
@@ -5859,22 +5859,22 @@
         <v>2236.472201726021</v>
       </c>
       <c r="T21" t="n">
-        <v>2142.010995172483</v>
+        <v>2043.33956059864</v>
       </c>
       <c r="U21" t="n">
-        <v>1913.935156345987</v>
+        <v>1815.263721772143</v>
       </c>
       <c r="V21" t="n">
-        <v>1678.783048114244</v>
+        <v>1580.1116135404</v>
       </c>
       <c r="W21" t="n">
-        <v>1424.545691386042</v>
+        <v>1325.874256812199</v>
       </c>
       <c r="X21" t="n">
-        <v>1216.69419118051</v>
+        <v>1118.022756606666</v>
       </c>
       <c r="Y21" t="n">
-        <v>1008.933892415556</v>
+        <v>910.2624578417121</v>
       </c>
     </row>
     <row r="22">
@@ -5908,10 +5908,10 @@
         <v>61.03076311795253</v>
       </c>
       <c r="J22" t="n">
-        <v>162.5043816692298</v>
+        <v>65.79650864340587</v>
       </c>
       <c r="K22" t="n">
-        <v>345.9262769718301</v>
+        <v>249.2184039460062</v>
       </c>
       <c r="L22" t="n">
         <v>486.7961685953547</v>
@@ -5920,13 +5920,13 @@
         <v>735.2898739361053</v>
       </c>
       <c r="N22" t="n">
-        <v>988.0319773483716</v>
+        <v>979.8824487234294</v>
       </c>
       <c r="O22" t="n">
-        <v>1208.549628090474</v>
+        <v>1200.400099465532</v>
       </c>
       <c r="P22" t="n">
-        <v>1392.13618361813</v>
+        <v>1383.986654993187</v>
       </c>
       <c r="Q22" t="n">
         <v>1485.257046592879</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C23" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464991</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307349</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6084,34 +6084,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6133,40 +6133,40 @@
         <v>231.3077836159866</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>67.83109325226769</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962282</v>
+        <v>155.2189959588239</v>
       </c>
       <c r="K25" t="n">
-        <v>262.1948921089719</v>
+        <v>350.2377232523182</v>
       </c>
       <c r="L25" t="n">
-        <v>514.6126090571531</v>
+        <v>602.6554402004995</v>
       </c>
       <c r="M25" t="n">
-        <v>778.7529633821748</v>
+        <v>866.7957945255213</v>
       </c>
       <c r="N25" t="n">
-        <v>1046.769673437846</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O25" t="n">
-        <v>1281.39589568186</v>
+        <v>1272.730853799382</v>
       </c>
       <c r="P25" t="n">
-        <v>1380.346898434618</v>
+        <v>1468.389729577965</v>
       </c>
       <c r="Q25" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R25" t="n">
         <v>1489.975538818983</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1955.671712554366</v>
+        <v>1955.671712554367</v>
       </c>
       <c r="C26" t="n">
-        <v>1646.478165174435</v>
+        <v>1646.478165174436</v>
       </c>
       <c r="D26" t="n">
         <v>1347.981436128166</v>
       </c>
       <c r="E26" t="n">
-        <v>1021.962153090402</v>
+        <v>1021.962153090403</v>
       </c>
       <c r="F26" t="n">
-        <v>670.7452178612753</v>
+        <v>670.7452178612759</v>
       </c>
       <c r="G26" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667532</v>
       </c>
       <c r="H26" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="I26" t="n">
-        <v>95.04551302703183</v>
+        <v>95.0455130270318</v>
       </c>
       <c r="J26" t="n">
         <v>342.5042110522845</v>
       </c>
       <c r="K26" t="n">
-        <v>734.9031518083581</v>
+        <v>734.9031518083583</v>
       </c>
       <c r="L26" t="n">
         <v>1244.516932122994</v>
       </c>
       <c r="M26" t="n">
-        <v>1836.628403861145</v>
+        <v>1836.628403861146</v>
       </c>
       <c r="N26" t="n">
-        <v>2441.986787986155</v>
+        <v>2441.986787986156</v>
       </c>
       <c r="O26" t="n">
-        <v>3003.538825931719</v>
+        <v>3003.53882593172</v>
       </c>
       <c r="P26" t="n">
-        <v>3456.892759355124</v>
+        <v>3456.892759355125</v>
       </c>
       <c r="Q26" t="n">
-        <v>3763.758688177034</v>
+        <v>3763.758688177035</v>
       </c>
       <c r="R26" t="n">
-        <v>3881.355321800064</v>
+        <v>3881.355321800065</v>
       </c>
       <c r="S26" t="n">
-        <v>3830.83362288764</v>
+        <v>3830.833622887641</v>
       </c>
       <c r="T26" t="n">
-        <v>3684.624844832343</v>
+        <v>3684.624844832344</v>
       </c>
       <c r="U26" t="n">
-        <v>3490.86333766666</v>
+        <v>3490.863337666661</v>
       </c>
       <c r="V26" t="n">
-        <v>3219.56941988357</v>
+        <v>3219.569419883571</v>
       </c>
       <c r="W26" t="n">
-        <v>2926.569734173937</v>
+        <v>2926.569734173938</v>
       </c>
       <c r="X26" t="n">
-        <v>2612.872945473338</v>
+        <v>2612.872945473339</v>
       </c>
       <c r="Y26" t="n">
-        <v>2282.502583058007</v>
+        <v>2282.502583058008</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849265</v>
       </c>
       <c r="C27" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037995</v>
       </c>
       <c r="D27" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425482</v>
       </c>
       <c r="E27" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370927</v>
       </c>
       <c r="F27" t="n">
         <v>323.4993925639777</v>
@@ -6300,40 +6300,40 @@
         <v>96.63439803446335</v>
       </c>
       <c r="I27" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3043759266185</v>
+        <v>171.3043759266186</v>
       </c>
       <c r="K27" t="n">
-        <v>409.5685749069656</v>
+        <v>409.5685749069658</v>
       </c>
       <c r="L27" t="n">
-        <v>776.2667352196308</v>
+        <v>776.2667352196311</v>
       </c>
       <c r="M27" t="n">
         <v>1223.543060441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1697.066103996401</v>
+        <v>1697.066103996402</v>
       </c>
       <c r="O27" t="n">
         <v>2108.027383414456</v>
       </c>
       <c r="P27" t="n">
-        <v>2418.526974890558</v>
+        <v>2418.526974890559</v>
       </c>
       <c r="Q27" t="n">
-        <v>2576.168532537158</v>
+        <v>2576.168532537159</v>
       </c>
       <c r="R27" t="n">
-        <v>2576.024179129673</v>
+        <v>2576.024179129674</v>
       </c>
       <c r="S27" t="n">
-        <v>2446.586292623153</v>
+        <v>2446.586292623154</v>
       </c>
       <c r="T27" t="n">
-        <v>2253.943292301009</v>
+        <v>2253.94329230101</v>
       </c>
       <c r="U27" t="n">
         <v>2025.875445435425</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>684.3458835222594</v>
+        <v>684.3458835222593</v>
       </c>
       <c r="C28" t="n">
-        <v>575.1786701548334</v>
+        <v>575.1786701548333</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8310003029785</v>
+        <v>484.8310003029784</v>
       </c>
       <c r="E28" t="n">
-        <v>396.6868762810662</v>
+        <v>396.6868762810661</v>
       </c>
       <c r="F28" t="n">
         <v>309.5658983436367</v>
@@ -6379,25 +6379,25 @@
         <v>115.1838140571751</v>
       </c>
       <c r="I28" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J28" t="n">
-        <v>181.3293059491641</v>
+        <v>148.029427039668</v>
       </c>
       <c r="K28" t="n">
-        <v>443.8960559642676</v>
+        <v>304.9198483735657</v>
       </c>
       <c r="L28" t="n">
-        <v>658.185466952852</v>
+        <v>525.332581169905</v>
       </c>
       <c r="M28" t="n">
-        <v>1060.922079618628</v>
+        <v>928.0691938356813</v>
       </c>
       <c r="N28" t="n">
-        <v>1460.91002339072</v>
+        <v>1328.057137607773</v>
       </c>
       <c r="O28" t="n">
-        <v>1685.966303594415</v>
+        <v>1685.966303594414</v>
       </c>
       <c r="P28" t="n">
         <v>1977.153371094301</v>
@@ -6406,13 +6406,13 @@
         <v>2113.343234313043</v>
       </c>
       <c r="R28" t="n">
-        <v>2083.281746631052</v>
+        <v>2083.281746631051</v>
       </c>
       <c r="S28" t="n">
-        <v>1951.364832018359</v>
+        <v>1951.364832018358</v>
       </c>
       <c r="T28" t="n">
-        <v>1789.367186148366</v>
+        <v>1789.367186148365</v>
       </c>
       <c r="U28" t="n">
         <v>1560.03328883449</v>
@@ -6424,10 +6424,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X28" t="n">
-        <v>967.2489883750676</v>
+        <v>967.2489883750675</v>
       </c>
       <c r="Y28" t="n">
-        <v>806.2253787920183</v>
+        <v>806.2253787920182</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1955.671712554366</v>
+        <v>1955.671712554365</v>
       </c>
       <c r="C29" t="n">
-        <v>1646.478165174436</v>
+        <v>1646.478165174434</v>
       </c>
       <c r="D29" t="n">
-        <v>1347.981436128166</v>
+        <v>1347.981436128165</v>
       </c>
       <c r="E29" t="n">
-        <v>1021.962153090403</v>
+        <v>1021.962153090401</v>
       </c>
       <c r="F29" t="n">
-        <v>670.7452178612759</v>
+        <v>670.7452178612748</v>
       </c>
       <c r="G29" t="n">
         <v>315.4417372667533</v>
       </c>
       <c r="H29" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="I29" t="n">
-        <v>95.04551302703184</v>
+        <v>95.04551302703157</v>
       </c>
       <c r="J29" t="n">
-        <v>342.5042110522847</v>
+        <v>342.5042110522841</v>
       </c>
       <c r="K29" t="n">
-        <v>734.9031518083584</v>
+        <v>734.9031518083578</v>
       </c>
       <c r="L29" t="n">
         <v>1244.516932122994</v>
@@ -6473,7 +6473,7 @@
         <v>1836.628403861146</v>
       </c>
       <c r="N29" t="n">
-        <v>2441.986787986155</v>
+        <v>2441.986787986156</v>
       </c>
       <c r="O29" t="n">
         <v>3003.53882593172</v>
@@ -6482,31 +6482,31 @@
         <v>3456.892759355125</v>
       </c>
       <c r="Q29" t="n">
-        <v>3763.758688177034</v>
+        <v>3763.758688177035</v>
       </c>
       <c r="R29" t="n">
-        <v>3881.355321800064</v>
+        <v>3881.355321800065</v>
       </c>
       <c r="S29" t="n">
-        <v>3830.83362288764</v>
+        <v>3830.833622887641</v>
       </c>
       <c r="T29" t="n">
-        <v>3684.624844832343</v>
+        <v>3684.624844832344</v>
       </c>
       <c r="U29" t="n">
-        <v>3490.86333766666</v>
+        <v>3490.863337666661</v>
       </c>
       <c r="V29" t="n">
-        <v>3219.56941988357</v>
+        <v>3219.569419883571</v>
       </c>
       <c r="W29" t="n">
         <v>2926.569734173937</v>
       </c>
       <c r="X29" t="n">
-        <v>2612.872945473338</v>
+        <v>2612.872945473337</v>
       </c>
       <c r="Y29" t="n">
-        <v>2282.502583058007</v>
+        <v>2282.502583058006</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849265</v>
       </c>
       <c r="C30" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037995</v>
       </c>
       <c r="D30" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425482</v>
       </c>
       <c r="E30" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370927</v>
       </c>
       <c r="F30" t="n">
         <v>323.4993925639777</v>
@@ -6537,16 +6537,16 @@
         <v>96.63439803446335</v>
       </c>
       <c r="I30" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3043759266192</v>
+        <v>171.3043759266186</v>
       </c>
       <c r="K30" t="n">
-        <v>409.5685749069663</v>
+        <v>409.5685749069658</v>
       </c>
       <c r="L30" t="n">
-        <v>776.2667352196315</v>
+        <v>776.2667352196311</v>
       </c>
       <c r="M30" t="n">
         <v>1223.543060441947</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>684.3458835222591</v>
+        <v>684.3458835222594</v>
       </c>
       <c r="C31" t="n">
-        <v>575.1786701548331</v>
+        <v>575.1786701548334</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8310003029783</v>
+        <v>484.8310003029785</v>
       </c>
       <c r="E31" t="n">
-        <v>396.686876281066</v>
+        <v>396.6868762810662</v>
       </c>
       <c r="F31" t="n">
-        <v>309.5658983436365</v>
+        <v>309.5658983436367</v>
       </c>
       <c r="G31" t="n">
-        <v>201.6320312788364</v>
+        <v>201.6320312788365</v>
       </c>
       <c r="H31" t="n">
         <v>115.1838140571751</v>
       </c>
       <c r="I31" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J31" t="n">
-        <v>148.029427039668</v>
+        <v>181.3293059491641</v>
       </c>
       <c r="K31" t="n">
-        <v>410.5961770547716</v>
+        <v>443.8960559642677</v>
       </c>
       <c r="L31" t="n">
-        <v>785.735542569495</v>
+        <v>819.0354214789911</v>
       </c>
       <c r="M31" t="n">
-        <v>1154.169972331879</v>
+        <v>1089.480443537906</v>
       </c>
       <c r="N31" t="n">
-        <v>1554.157916103971</v>
+        <v>1489.468387309998</v>
       </c>
       <c r="O31" t="n">
-        <v>1750.655832388388</v>
+        <v>1685.966303594415</v>
       </c>
       <c r="P31" t="n">
-        <v>2041.842899888274</v>
+        <v>1977.153371094301</v>
       </c>
       <c r="Q31" t="n">
-        <v>2113.343234313042</v>
+        <v>2113.343234313043</v>
       </c>
       <c r="R31" t="n">
-        <v>2083.281746631051</v>
+        <v>2083.281746631052</v>
       </c>
       <c r="S31" t="n">
-        <v>1951.364832018358</v>
+        <v>1951.364832018359</v>
       </c>
       <c r="T31" t="n">
-        <v>1789.367186148365</v>
+        <v>1789.367186148366</v>
       </c>
       <c r="U31" t="n">
-        <v>1560.033288834489</v>
+        <v>1560.03328883449</v>
       </c>
       <c r="V31" t="n">
-        <v>1365.117770189083</v>
+        <v>1365.117770189084</v>
       </c>
       <c r="W31" t="n">
         <v>1135.469569712604</v>
       </c>
       <c r="X31" t="n">
-        <v>967.2489883750671</v>
+        <v>967.2489883750676</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.2253787920179</v>
+        <v>806.2253787920183</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>1955.671712554366</v>
       </c>
       <c r="C32" t="n">
-        <v>1646.478165174435</v>
+        <v>1646.478165174436</v>
       </c>
       <c r="D32" t="n">
         <v>1347.981436128166</v>
@@ -6686,22 +6686,22 @@
         <v>1021.962153090402</v>
       </c>
       <c r="F32" t="n">
-        <v>670.7452178612757</v>
+        <v>670.7452178612762</v>
       </c>
       <c r="G32" t="n">
-        <v>315.4417372667531</v>
+        <v>315.4417372667533</v>
       </c>
       <c r="H32" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="I32" t="n">
-        <v>95.04551302703189</v>
+        <v>95.04551302703182</v>
       </c>
       <c r="J32" t="n">
-        <v>342.5042110522846</v>
+        <v>342.5042110522843</v>
       </c>
       <c r="K32" t="n">
-        <v>734.9031518083582</v>
+        <v>734.9031518083581</v>
       </c>
       <c r="L32" t="n">
         <v>1244.516932122994</v>
@@ -6716,25 +6716,25 @@
         <v>3003.53882593172</v>
       </c>
       <c r="P32" t="n">
-        <v>3456.892759355124</v>
+        <v>3456.892759355125</v>
       </c>
       <c r="Q32" t="n">
-        <v>3763.758688177034</v>
+        <v>3763.758688177035</v>
       </c>
       <c r="R32" t="n">
-        <v>3881.355321800064</v>
+        <v>3881.355321800065</v>
       </c>
       <c r="S32" t="n">
-        <v>3830.83362288764</v>
+        <v>3830.833622887641</v>
       </c>
       <c r="T32" t="n">
-        <v>3684.624844832343</v>
+        <v>3684.624844832344</v>
       </c>
       <c r="U32" t="n">
-        <v>3490.86333766666</v>
+        <v>3490.863337666661</v>
       </c>
       <c r="V32" t="n">
-        <v>3219.56941988357</v>
+        <v>3219.569419883571</v>
       </c>
       <c r="W32" t="n">
         <v>2926.569734173937</v>
@@ -6743,7 +6743,7 @@
         <v>2612.872945473338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2282.502583058007</v>
+        <v>2282.502583058008</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849265</v>
       </c>
       <c r="C33" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037995</v>
       </c>
       <c r="D33" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425482</v>
       </c>
       <c r="E33" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370927</v>
       </c>
       <c r="F33" t="n">
         <v>323.4993925639777</v>
@@ -6774,31 +6774,31 @@
         <v>96.63439803446335</v>
       </c>
       <c r="I33" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J33" t="n">
-        <v>171.3043759266185</v>
+        <v>171.3043759266186</v>
       </c>
       <c r="K33" t="n">
-        <v>409.5685749069656</v>
+        <v>409.5685749069658</v>
       </c>
       <c r="L33" t="n">
-        <v>776.2667352196308</v>
+        <v>776.2667352196311</v>
       </c>
       <c r="M33" t="n">
         <v>1223.543060441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1697.066103996401</v>
+        <v>1697.066103996402</v>
       </c>
       <c r="O33" t="n">
         <v>2108.027383414456</v>
       </c>
       <c r="P33" t="n">
-        <v>2418.526974890558</v>
+        <v>2418.526974890559</v>
       </c>
       <c r="Q33" t="n">
-        <v>2576.168532537158</v>
+        <v>2576.168532537159</v>
       </c>
       <c r="R33" t="n">
         <v>2576.024179129674</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>684.3458835222591</v>
+        <v>684.3458835222599</v>
       </c>
       <c r="C34" t="n">
-        <v>575.1786701548331</v>
+        <v>575.1786701548338</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8310003029782</v>
+        <v>484.8310003029788</v>
       </c>
       <c r="E34" t="n">
-        <v>396.686876281066</v>
+        <v>396.6868762810665</v>
       </c>
       <c r="F34" t="n">
-        <v>309.5658983436365</v>
+        <v>309.5658983436369</v>
       </c>
       <c r="G34" t="n">
-        <v>201.6320312788364</v>
+        <v>201.6320312788366</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1838140571751</v>
+        <v>115.1838140571752</v>
       </c>
       <c r="I34" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J34" t="n">
-        <v>181.3293059491641</v>
+        <v>148.029427039668</v>
       </c>
       <c r="K34" t="n">
-        <v>443.8960559642678</v>
+        <v>311.0431701813222</v>
       </c>
       <c r="L34" t="n">
-        <v>819.0354214789912</v>
+        <v>525.3325811699067</v>
       </c>
       <c r="M34" t="n">
-        <v>1154.169972331878</v>
+        <v>928.0691938356829</v>
       </c>
       <c r="N34" t="n">
-        <v>1554.15791610397</v>
+        <v>1328.057137607775</v>
       </c>
       <c r="O34" t="n">
-        <v>1750.655832388387</v>
+        <v>1685.966303594415</v>
       </c>
       <c r="P34" t="n">
-        <v>2041.842899888274</v>
+        <v>1977.153371094302</v>
       </c>
       <c r="Q34" t="n">
-        <v>2113.343234313042</v>
+        <v>2113.343234313044</v>
       </c>
       <c r="R34" t="n">
-        <v>2083.28174663105</v>
+        <v>2083.281746631053</v>
       </c>
       <c r="S34" t="n">
-        <v>1951.364832018358</v>
+        <v>1951.364832018359</v>
       </c>
       <c r="T34" t="n">
-        <v>1789.367186148365</v>
+        <v>1789.367186148366</v>
       </c>
       <c r="U34" t="n">
-        <v>1560.033288834489</v>
+        <v>1560.033288834491</v>
       </c>
       <c r="V34" t="n">
-        <v>1365.117770189083</v>
+        <v>1365.117770189084</v>
       </c>
       <c r="W34" t="n">
-        <v>1135.469569712604</v>
+        <v>1135.469569712605</v>
       </c>
       <c r="X34" t="n">
-        <v>967.248988375067</v>
+        <v>967.2489883750682</v>
       </c>
       <c r="Y34" t="n">
-        <v>806.2253787920179</v>
+        <v>806.2253787920188</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103806</v>
@@ -6920,67 +6920,67 @@
         <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046498</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307339</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710112</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668177</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7087,28 +7087,28 @@
         <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226756</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J37" t="n">
-        <v>176.3617198155309</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K37" t="n">
-        <v>274.6725740832013</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L37" t="n">
-        <v>527.0902910313823</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M37" t="n">
-        <v>694.5227723305801</v>
+        <v>693.203795510496</v>
       </c>
       <c r="N37" t="n">
-        <v>962.5394823862514</v>
+        <v>950.0618004120239</v>
       </c>
       <c r="O37" t="n">
-        <v>1197.165704630265</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P37" t="n">
         <v>1380.34689843462</v>
@@ -7151,67 +7151,67 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307333</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495731</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912123</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810587</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329467</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001392</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060174</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939511</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710112</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668177</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515857</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L39" t="n">
         <v>765.1517452158131</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170937</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630299</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245374</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159875</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919203</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404825</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226745</v>
+        <v>67.83109325226756</v>
       </c>
       <c r="J40" t="n">
-        <v>79.65384678970688</v>
+        <v>155.2189959588263</v>
       </c>
       <c r="K40" t="n">
-        <v>274.6725740832009</v>
+        <v>350.2377232523205</v>
       </c>
       <c r="L40" t="n">
-        <v>430.3824180055581</v>
+        <v>602.6554402005016</v>
       </c>
       <c r="M40" t="n">
-        <v>694.5227723305795</v>
+        <v>770.0879214996994</v>
       </c>
       <c r="N40" t="n">
-        <v>962.5394823862507</v>
+        <v>941.3967585295469</v>
       </c>
       <c r="O40" t="n">
-        <v>1197.165704630264</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P40" t="n">
-        <v>1392.824580408846</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.31049693651</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818987</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219656</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363025</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062512</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304685</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673511</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X40" t="n">
-        <v>607.357570643177</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734902</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7418,7 +7418,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7427,34 +7427,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710112</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668177</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515857</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
         <v>458.9189605332749</v>
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170937</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630299</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245374</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159875</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919203</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404825</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226745</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>79.65384678970688</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
-        <v>253.5298502265</v>
+        <v>273.3535972631172</v>
       </c>
       <c r="L43" t="n">
-        <v>505.9475671746809</v>
+        <v>525.7713142112984</v>
       </c>
       <c r="M43" t="n">
-        <v>770.0879214997024</v>
+        <v>789.9116685363201</v>
       </c>
       <c r="N43" t="n">
-        <v>1038.104631555374</v>
+        <v>1046.769673437846</v>
       </c>
       <c r="O43" t="n">
-        <v>1176.022980773563</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P43" t="n">
-        <v>1371.681856552146</v>
+        <v>1380.346898434619</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.31049693651</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818987</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219656</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363025</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062512</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304685</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673511</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X43" t="n">
-        <v>607.357570643177</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734902</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,19 +7646,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7679,19 +7679,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7728,10 +7728,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,31 +7743,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
         <v>1109.759191501176</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170918</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630284</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J46" t="n">
-        <v>175.0427429954468</v>
+        <v>155.2189959588248</v>
       </c>
       <c r="K46" t="n">
-        <v>370.0614702889412</v>
+        <v>350.2377232523191</v>
       </c>
       <c r="L46" t="n">
-        <v>622.4791872371223</v>
+        <v>602.6554402005004</v>
       </c>
       <c r="M46" t="n">
-        <v>886.6195415621441</v>
+        <v>770.0879214996982</v>
       </c>
       <c r="N46" t="n">
-        <v>1154.636251617816</v>
+        <v>941.3967585295457</v>
       </c>
       <c r="O46" t="n">
-        <v>1292.554600836005</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P46" t="n">
-        <v>1468.389729577965</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936505</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304657</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673485</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431747</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734881</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
   </sheetData>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>6.185173543186608</v>
       </c>
       <c r="M28" t="n">
         <v>178.5096609094456</v>
@@ -10045,7 +10045,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>28.8468322416943</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
@@ -10276,7 +10276,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>143.8609913100591</v>
+        <v>44.88179160958524</v>
       </c>
       <c r="N31" t="n">
         <v>171.8177168444618</v>
@@ -10288,7 +10288,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>6.185173543188597</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>110.2247499873352</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>140.1945625283134</v>
       </c>
       <c r="D11" t="n">
-        <v>316.169601257454</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>300.902199172754</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>368.3626053784826</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>258.3962588871428</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>166.3884643413131</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>331.21766031524</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>347.7244982928247</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.1020326549835</v>
       </c>
       <c r="E13" t="n">
-        <v>107.9205222833402</v>
+        <v>107.9205222833403</v>
       </c>
       <c r="F13" t="n">
-        <v>19.96853144855929</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>127.6131923784187</v>
+        <v>31.56079163703187</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.87104721483904</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.95214767987296</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>12.28124329806123</v>
+        <v>326.7594514077786</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>343.4169297090331</v>
+        <v>343.4169297090328</v>
       </c>
       <c r="F14" t="n">
-        <v>368.3626053784828</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>372.6330561788417</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>11.72896909311314</v>
+        <v>11.72896909311288</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>166.3884643413134</v>
+        <v>60.13951869799629</v>
       </c>
       <c r="U14" t="n">
-        <v>212.4997132667627</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>14.8321583367364</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>127.6131923784188</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>107.1379958601997</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.871047214839</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>128.9880893606121</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>181.4663044295874</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>274.5510378853845</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>257.9260297009493</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>16.62500818443603</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>257.9260297009491</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>274.5510378853844</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>16.62500818443603</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>884473.657051991</v>
+        <v>884473.6570519909</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>884473.6570519904</v>
+        <v>884473.6570519909</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959025.0086983286</v>
+        <v>959025.0086983287</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>959025.0086983286</v>
+        <v>959025.0086983287</v>
       </c>
     </row>
     <row r="9">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>450601.986294371</v>
+      </c>
+      <c r="C2" t="n">
         <v>450601.9862943711</v>
-      </c>
-      <c r="C2" t="n">
-        <v>450601.986294371</v>
       </c>
       <c r="D2" t="n">
         <v>450637.1630524126</v>
@@ -26323,37 +26323,37 @@
         <v>398674.3758670269</v>
       </c>
       <c r="F2" t="n">
-        <v>398674.3758670269</v>
+        <v>398674.3758670266</v>
       </c>
       <c r="G2" t="n">
         <v>439553.1289867337</v>
       </c>
       <c r="H2" t="n">
-        <v>439553.1289867338</v>
+        <v>439553.1289867336</v>
       </c>
       <c r="I2" t="n">
         <v>451572.9734253556</v>
       </c>
       <c r="J2" t="n">
-        <v>451572.9734253554</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="K2" t="n">
-        <v>451572.9734253555</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="L2" t="n">
         <v>451572.9734253556</v>
       </c>
       <c r="M2" t="n">
-        <v>451572.9734253555</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253554</v>
+        <v>451572.9734253557</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171169.7048931371</v>
+        <v>171169.704893137</v>
       </c>
       <c r="E3" t="n">
         <v>928626.9828614056</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47337.02389190107</v>
+        <v>47337.02389190086</v>
       </c>
       <c r="H3" t="n">
-        <v>1.687055259935733e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>60307.60726530838</v>
+        <v>60307.60726530867</v>
       </c>
       <c r="J3" t="n">
-        <v>36352.13055698658</v>
+        <v>36352.13055698646</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47337.02389190108</v>
+        <v>47337.02389190082</v>
       </c>
       <c r="M3" t="n">
-        <v>186300.8813297682</v>
+        <v>186300.8813297684</v>
       </c>
       <c r="N3" t="n">
-        <v>9.061750461114567e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>397952.3823424636</v>
       </c>
       <c r="E4" t="n">
-        <v>58911.24292805724</v>
+        <v>58911.24292805714</v>
       </c>
       <c r="F4" t="n">
-        <v>58911.2429280569</v>
+        <v>58911.24292805718</v>
       </c>
       <c r="G4" t="n">
         <v>100421.2759989387</v>
@@ -26436,28 +26436,28 @@
         <v>100421.2759989387</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657702</v>
       </c>
       <c r="J4" t="n">
-        <v>95033.13778715182</v>
+        <v>95033.13778715179</v>
       </c>
       <c r="K4" t="n">
-        <v>95033.13778715186</v>
+        <v>95033.13778715179</v>
       </c>
       <c r="L4" t="n">
-        <v>95033.13778715188</v>
+        <v>95033.13778715173</v>
       </c>
       <c r="M4" t="n">
+        <v>93774.13782657703</v>
+      </c>
+      <c r="N4" t="n">
         <v>93774.13782657695</v>
-      </c>
-      <c r="N4" t="n">
-        <v>93774.13782657702</v>
       </c>
       <c r="O4" t="n">
         <v>93774.137826577</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657709</v>
+        <v>93774.137826577</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>37984.72116648068</v>
       </c>
       <c r="E5" t="n">
-        <v>72159.42212422502</v>
+        <v>72159.42212422501</v>
       </c>
       <c r="F5" t="n">
-        <v>72159.42212422499</v>
+        <v>72159.42212422501</v>
       </c>
       <c r="G5" t="n">
         <v>77133.89245118528</v>
@@ -26488,28 +26488,28 @@
         <v>77133.89245118528</v>
       </c>
       <c r="I5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="J5" t="n">
-        <v>87728.20329125514</v>
+        <v>87728.20329125515</v>
       </c>
       <c r="K5" t="n">
-        <v>87728.20329125514</v>
+        <v>87728.20329125515</v>
       </c>
       <c r="L5" t="n">
         <v>87728.20329125514</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624988</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624985</v>
-      </c>
-      <c r="N5" t="n">
-        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50641.57363736009</v>
+        <v>-50645.98721522838</v>
       </c>
       <c r="C6" t="n">
-        <v>-50641.5736373602</v>
+        <v>-50645.98721522826</v>
       </c>
       <c r="D6" t="n">
-        <v>-156469.6453496688</v>
+        <v>-156473.899033182</v>
       </c>
       <c r="E6" t="n">
-        <v>-661023.2720466609</v>
+        <v>-661263.7202173804</v>
       </c>
       <c r="F6" t="n">
-        <v>267603.7108147452</v>
+        <v>267363.2626440247</v>
       </c>
       <c r="G6" t="n">
-        <v>214660.9366447087</v>
+        <v>214606.3009881696</v>
       </c>
       <c r="H6" t="n">
-        <v>261997.9605366096</v>
+        <v>261943.3248800704</v>
       </c>
       <c r="I6" t="n">
-        <v>214972.6310272203</v>
+        <v>214972.63102722</v>
       </c>
       <c r="J6" t="n">
-        <v>232459.5017899619</v>
+        <v>232459.5017899621</v>
       </c>
       <c r="K6" t="n">
         <v>268811.6323469487</v>
       </c>
       <c r="L6" t="n">
-        <v>221474.6084550475</v>
+        <v>221474.6084550479</v>
       </c>
       <c r="M6" t="n">
         <v>88979.35696276049</v>
       </c>
       <c r="N6" t="n">
-        <v>275280.2382925291</v>
+        <v>275280.238292529</v>
       </c>
       <c r="O6" t="n">
-        <v>275280.238292529</v>
+        <v>275280.2382925289</v>
       </c>
       <c r="P6" t="n">
-        <v>275280.2382925285</v>
+        <v>275280.2382925289</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="F2" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G2" t="n">
         <v>97.68472022810501</v>
@@ -26707,25 +26707,25 @@
         <v>97.68472022810502</v>
       </c>
       <c r="J2" t="n">
+        <v>59.17127986487604</v>
+      </c>
+      <c r="K2" t="n">
         <v>59.17127986487602</v>
       </c>
-      <c r="K2" t="n">
-        <v>59.17127986487607</v>
-      </c>
       <c r="L2" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>199.8679434165451</v>
+        <v>199.867943416545</v>
       </c>
       <c r="E3" t="n">
         <v>1033.864942049762</v>
@@ -26808,28 +26808,28 @@
         <v>762.8845389744066</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>970.338830450016</v>
+        <v>970.3388304500162</v>
       </c>
       <c r="K4" t="n">
-        <v>970.3388304500161</v>
+        <v>970.3388304500162</v>
       </c>
       <c r="L4" t="n">
-        <v>970.3388304500161</v>
+        <v>970.3388304500162</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022933</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022933</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.17127986487633</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.418471674843123e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487635</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="M2" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322892</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>199.8679434165451</v>
+        <v>199.867943416545</v>
       </c>
       <c r="E3" t="n">
-        <v>833.9969986332164</v>
+        <v>833.9969986332165</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>55.91175854353651</v>
+        <v>55.91175854353673</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>68.5169164278858</v>
+        <v>68.51691642788626</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9373750477235</v>
+        <v>138.9373750477233</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>623.9471639266834</v>
+        <v>623.9471639266837</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487633</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27874,25 +27874,25 @@
         <v>179.4993714254155</v>
       </c>
       <c r="J8" t="n">
-        <v>112.8507613606561</v>
+        <v>112.8507613606562</v>
       </c>
       <c r="K8" t="n">
-        <v>117.8830092062977</v>
+        <v>117.8830092062978</v>
       </c>
       <c r="L8" t="n">
-        <v>108.9697899219211</v>
+        <v>108.9697899219212</v>
       </c>
       <c r="M8" t="n">
-        <v>89.26055676721072</v>
+        <v>89.2605567672108</v>
       </c>
       <c r="N8" t="n">
-        <v>86.04447339087156</v>
+        <v>86.04447339087164</v>
       </c>
       <c r="O8" t="n">
-        <v>94.71931714500565</v>
+        <v>94.71931714500573</v>
       </c>
       <c r="P8" t="n">
-        <v>115.690241591537</v>
+        <v>115.6902415915371</v>
       </c>
       <c r="Q8" t="n">
         <v>135.5378933935513</v>
@@ -27950,34 +27950,34 @@
         <v>108.0834705440131</v>
       </c>
       <c r="I9" t="n">
-        <v>84.72083890735962</v>
+        <v>84.72083890735964</v>
       </c>
       <c r="J9" t="n">
-        <v>86.22106658047991</v>
+        <v>86.22106658047993</v>
       </c>
       <c r="K9" t="n">
-        <v>68.42126847655764</v>
+        <v>68.42126847655769</v>
       </c>
       <c r="L9" t="n">
-        <v>45.21039356443958</v>
+        <v>45.21039356443963</v>
       </c>
       <c r="M9" t="n">
-        <v>33.20600476000124</v>
+        <v>33.20600476000129</v>
       </c>
       <c r="N9" t="n">
-        <v>19.53068211486433</v>
+        <v>19.5306821148644</v>
       </c>
       <c r="O9" t="n">
-        <v>40.31099608107345</v>
+        <v>40.31099608107351</v>
       </c>
       <c r="P9" t="n">
-        <v>51.88147797593832</v>
+        <v>51.88147797593838</v>
       </c>
       <c r="Q9" t="n">
-        <v>85.10482479172784</v>
+        <v>85.10482479172786</v>
       </c>
       <c r="R9" t="n">
-        <v>118.9877057846751</v>
+        <v>118.9877057846752</v>
       </c>
       <c r="S9" t="n">
         <v>163.6978811003561</v>
@@ -28035,25 +28035,25 @@
         <v>101.5138969156179</v>
       </c>
       <c r="K10" t="n">
-        <v>87.1392857629379</v>
+        <v>87.13928576293793</v>
       </c>
       <c r="L10" t="n">
-        <v>81.30040830362879</v>
+        <v>81.30040830362881</v>
       </c>
       <c r="M10" t="n">
-        <v>82.42868643397412</v>
+        <v>82.42868643397415</v>
       </c>
       <c r="N10" t="n">
-        <v>72.53182165325441</v>
+        <v>72.53182165325444</v>
       </c>
       <c r="O10" t="n">
-        <v>87.51314854626173</v>
+        <v>87.51314854626176</v>
       </c>
       <c r="P10" t="n">
-        <v>94.13713324236539</v>
+        <v>94.13713324236542</v>
       </c>
       <c r="Q10" t="n">
-        <v>121.3249421735475</v>
+        <v>121.3249421735476</v>
       </c>
       <c r="R10" t="n">
         <v>161.0877053421165</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="C11" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="D11" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="E11" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="F11" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="G11" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="H11" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="I11" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="T11" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="U11" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="V11" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="W11" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="X11" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.513440363229</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>38.513440363229</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -28214,13 +28214,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.609766986073083</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>20.4859970975275</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28229,10 +28229,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>38.513440363229</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>12.8762301114543</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="C13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="D13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="E13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="F13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="G13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="H13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="I13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="J13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="K13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="L13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="M13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="N13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="O13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="P13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="R13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="S13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="T13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="U13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="V13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="W13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="X13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.513440363229</v>
+        <v>38.5134403632289</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="C14" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D14" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E14" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F14" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G14" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H14" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I14" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T14" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="U14" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V14" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="W14" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X14" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.51344036322867</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>38.51344036322867</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G15" t="n">
-        <v>12.87623011145557</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H15" t="n">
-        <v>38.51344036322867</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>22.95785363122047</v>
+        <v>4.930410365519379</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.609766986073083</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28463,16 +28463,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>38.51344036322867</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="C16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="J16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="K16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="L16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="M16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="N16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="P16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="R16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="S16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="U16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="W16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.51344036322867</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="17">
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>69.24527133626526</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
         <v>97.68472022810501</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.609766986073083</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28703,7 +28703,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>76.85503832233837</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28749,19 +28749,19 @@
         <v>97.68472022810501</v>
       </c>
       <c r="L19" t="n">
-        <v>93.67200531720698</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>97.68472022810501</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O19" t="n">
         <v>97.68472022810501</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810501</v>
+        <v>93.67200531720692</v>
       </c>
       <c r="Q19" t="n">
         <v>97.68472022810501</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>76.85503832233836</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28886,7 +28886,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>76.85503832233847</v>
       </c>
       <c r="I21" t="n">
         <v>22.95785363122047</v>
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28980,19 +28980,19 @@
         <v>97.68472022810501</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>97.68472022810501</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="M22" t="n">
         <v>97.68472022810501</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810501</v>
+        <v>89.45287313220391</v>
       </c>
       <c r="O22" t="n">
         <v>97.68472022810501</v>
@@ -29001,7 +29001,7 @@
         <v>97.68472022810501</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.45287313220392</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="R22" t="n">
         <v>97.68472022810501</v>
@@ -29056,7 +29056,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29214,13 +29214,13 @@
         <v>97.68472022810502</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>76.32843350415831</v>
       </c>
       <c r="K25" t="n">
-        <v>86.41330088048366</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L25" t="n">
         <v>97.68472022810502</v>
@@ -29229,19 +29229,19 @@
         <v>97.68472022810502</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="R25" t="n">
-        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>97.68472022810502</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="C26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="D26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="E26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="F26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="G26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="H26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="I26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="J26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="K26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="L26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="M26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="N26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="O26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="P26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="R26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="S26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="T26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="U26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="V26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="W26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="X26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="Y26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
     </row>
     <row r="27">
@@ -29411,7 +29411,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="C28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="D28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="E28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="F28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="G28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="H28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="I28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="J28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="K28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="L28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="M28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="N28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="O28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="P28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="R28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="S28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="T28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="U28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="V28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="W28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="X28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487604</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="C29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="D29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="E29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="F29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="G29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="H29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="I29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="J29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="K29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="L29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="M29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="N29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="O29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="P29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="R29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="S29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="T29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="U29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="V29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="W29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="X29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="Y29" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="C31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="D31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="E31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="F31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="G31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="H31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="I31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="J31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="K31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="L31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="M31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="N31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="O31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="P31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="R31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="S31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="T31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="U31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="V31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="W31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="X31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.17127986487607</v>
+        <v>59.17127986487602</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="C32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="D32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="E32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="F32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="G32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="H32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="I32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="J32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487586</v>
       </c>
       <c r="K32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="L32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="M32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="N32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="O32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="P32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="R32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="S32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="T32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="U32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="V32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="W32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="X32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="Y32" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
     </row>
     <row r="33">
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="C34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="D34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="E34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="F34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="G34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="H34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="I34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="J34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="K34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="L34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="M34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="N34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="O34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="P34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="R34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="S34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="T34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="U34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="V34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="W34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="X34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
       <c r="Y34" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487597</v>
       </c>
     </row>
     <row r="35">
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30162,7 +30162,7 @@
         <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810489</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>97.68472022810489</v>
@@ -30177,13 +30177,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810489</v>
+        <v>86.41330088048528</v>
       </c>
       <c r="O37" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="P37" t="n">
-        <v>85.08100106221852</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q37" t="n">
         <v>97.68472022810489</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292938</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>76.32843350416086</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810477</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810477</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q40" t="n">
-        <v>76.32843350416435</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.069544618483633e-12</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="42">
@@ -30545,7 +30545,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30596,7 +30596,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810477</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>76.32843350416442</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810477</v>
+        <v>86.41330088048363</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810477</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="45">
@@ -30791,10 +30791,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="I45" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810505</v>
+        <v>76.32843350415935</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P46" t="n">
-        <v>77.66073332242502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.803489219765005</v>
+        <v>0.8034892197650045</v>
       </c>
       <c r="H8" t="n">
-        <v>8.228733971918359</v>
+        <v>8.228733971918354</v>
       </c>
       <c r="I8" t="n">
-        <v>30.97651814499038</v>
+        <v>30.97651814499037</v>
       </c>
       <c r="J8" t="n">
-        <v>68.19514316603015</v>
+        <v>68.19514316603011</v>
       </c>
       <c r="K8" t="n">
         <v>102.2068418386828</v>
       </c>
       <c r="L8" t="n">
-        <v>126.7966250480661</v>
+        <v>126.796625048066</v>
       </c>
       <c r="M8" t="n">
-        <v>141.085676460062</v>
+        <v>141.0856764600619</v>
       </c>
       <c r="N8" t="n">
-        <v>143.3685902057194</v>
+        <v>143.3685902057193</v>
       </c>
       <c r="O8" t="n">
-        <v>135.3788942766811</v>
+        <v>135.378894276681</v>
       </c>
       <c r="P8" t="n">
-        <v>115.5427541637325</v>
+        <v>115.5427541637324</v>
       </c>
       <c r="Q8" t="n">
-        <v>86.76779648089824</v>
+        <v>86.76779648089818</v>
       </c>
       <c r="R8" t="n">
-        <v>50.47217970106354</v>
+        <v>50.47217970106351</v>
       </c>
       <c r="S8" t="n">
-        <v>18.30951059539507</v>
+        <v>18.30951059539506</v>
       </c>
       <c r="T8" t="n">
-        <v>3.517274059521311</v>
+        <v>3.517274059521309</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06427913758120038</v>
+        <v>0.06427913758120035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4299046330091726</v>
+        <v>0.4299046330091723</v>
       </c>
       <c r="H9" t="n">
-        <v>4.151973692483325</v>
+        <v>4.151973692483323</v>
       </c>
       <c r="I9" t="n">
-        <v>14.80154109264037</v>
+        <v>14.80154109264036</v>
       </c>
       <c r="J9" t="n">
-        <v>40.61656008618679</v>
+        <v>40.61656008618677</v>
       </c>
       <c r="K9" t="n">
-        <v>69.42017049780135</v>
+        <v>69.42017049780131</v>
       </c>
       <c r="L9" t="n">
-        <v>93.3439862154346</v>
+        <v>93.34398621543455</v>
       </c>
       <c r="M9" t="n">
-        <v>108.9280291620171</v>
+        <v>108.928029162017</v>
       </c>
       <c r="N9" t="n">
-        <v>111.811029968469</v>
+        <v>111.8110299684689</v>
       </c>
       <c r="O9" t="n">
-        <v>102.285248363371</v>
+        <v>102.2852483633709</v>
       </c>
       <c r="P9" t="n">
-        <v>82.09292943839192</v>
+        <v>82.09292943839186</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.87694929429368</v>
+        <v>54.87694929429365</v>
       </c>
       <c r="R9" t="n">
-        <v>26.69179817928881</v>
+        <v>26.6917981792888</v>
       </c>
       <c r="S9" t="n">
-        <v>7.985290003481775</v>
+        <v>7.98529000348177</v>
       </c>
       <c r="T9" t="n">
-        <v>1.732817358488726</v>
+        <v>1.732817358488725</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02828319954007716</v>
+        <v>0.02828319954007714</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3604176028822945</v>
+        <v>0.3604176028822942</v>
       </c>
       <c r="H10" t="n">
-        <v>3.204440141989857</v>
+        <v>3.204440141989855</v>
       </c>
       <c r="I10" t="n">
-        <v>10.83874027576937</v>
+        <v>10.83874027576936</v>
       </c>
       <c r="J10" t="n">
-        <v>25.48152452377822</v>
+        <v>25.4815245237782</v>
       </c>
       <c r="K10" t="n">
-        <v>41.87397240759748</v>
+        <v>41.87397240759745</v>
       </c>
       <c r="L10" t="n">
-        <v>53.5842679776095</v>
+        <v>53.58426797760946</v>
       </c>
       <c r="M10" t="n">
-        <v>56.49709751363093</v>
+        <v>56.4970975136309</v>
       </c>
       <c r="N10" t="n">
-        <v>55.15372281197879</v>
+        <v>55.15372281197876</v>
       </c>
       <c r="O10" t="n">
-        <v>50.94338990558106</v>
+        <v>50.94338990558103</v>
       </c>
       <c r="P10" t="n">
-        <v>43.59087080678221</v>
+        <v>43.59087080678219</v>
       </c>
       <c r="Q10" t="n">
-        <v>30.18005945589831</v>
+        <v>30.1800594558983</v>
       </c>
       <c r="R10" t="n">
-        <v>16.20568603505298</v>
+        <v>16.20568603505297</v>
       </c>
       <c r="S10" t="n">
-        <v>6.281095861139621</v>
+        <v>6.281095861139617</v>
       </c>
       <c r="T10" t="n">
-        <v>1.539966121406167</v>
+        <v>1.539966121406166</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0196591419753979</v>
+        <v>0.01965914197539789</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32485,7 +32485,7 @@
         <v>741.6084674263079</v>
       </c>
       <c r="O20" t="n">
-        <v>700.279846250399</v>
+        <v>700.2798462504002</v>
       </c>
       <c r="P20" t="n">
         <v>597.6726472278725</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>76.96356605509712</v>
+        <v>76.96356605509702</v>
       </c>
       <c r="K13" t="n">
-        <v>232.8471281995748</v>
+        <v>232.8471281995747</v>
       </c>
       <c r="L13" t="n">
-        <v>343.2809617265255</v>
+        <v>343.2809617265254</v>
       </c>
       <c r="M13" t="n">
-        <v>370.3421238130045</v>
+        <v>370.3421238130044</v>
       </c>
       <c r="N13" t="n">
-        <v>367.9414909313699</v>
+        <v>367.9414909313697</v>
       </c>
       <c r="O13" t="n">
-        <v>326.6154882607063</v>
+        <v>326.6154882607062</v>
       </c>
       <c r="P13" t="n">
-        <v>261.2762486286147</v>
+        <v>261.2762486286146</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.4650033610486</v>
+        <v>108.4650033610485</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>76.96356605509681</v>
+        <v>76.96356605509706</v>
       </c>
       <c r="K16" t="n">
-        <v>232.8471281995745</v>
+        <v>232.8471281995747</v>
       </c>
       <c r="L16" t="n">
-        <v>343.2809617265252</v>
+        <v>343.2809617265254</v>
       </c>
       <c r="M16" t="n">
-        <v>370.3421238130043</v>
+        <v>370.3421238130045</v>
       </c>
       <c r="N16" t="n">
-        <v>367.9414909313695</v>
+        <v>367.9414909313698</v>
       </c>
       <c r="O16" t="n">
-        <v>326.615488260706</v>
+        <v>326.6154882607063</v>
       </c>
       <c r="P16" t="n">
-        <v>261.2762486286143</v>
+        <v>261.2762486286146</v>
       </c>
       <c r="Q16" t="n">
-        <v>108.4650033610483</v>
+        <v>108.4650033610485</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>185.2746417197983</v>
       </c>
       <c r="L19" t="n">
-        <v>235.964825138949</v>
+        <v>142.2928198217421</v>
       </c>
       <c r="M19" t="n">
         <v>251.0037427684349</v>
       </c>
       <c r="N19" t="n">
-        <v>157.610333723679</v>
+        <v>255.295053951784</v>
       </c>
       <c r="O19" t="n">
         <v>222.7451017596999</v>
       </c>
       <c r="P19" t="n">
-        <v>185.4409651794496</v>
+        <v>181.4282502685515</v>
       </c>
       <c r="Q19" t="n">
         <v>102.2933248481732</v>
@@ -36133,7 +36133,7 @@
         <v>512.195403829717</v>
       </c>
       <c r="O20" t="n">
-        <v>470.1816348287123</v>
+        <v>470.1816348287134</v>
       </c>
       <c r="P20" t="n">
         <v>366.439651472603</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>102.4986045972498</v>
+        <v>4.813884369144787</v>
       </c>
       <c r="K22" t="n">
         <v>185.2746417197983</v>
       </c>
       <c r="L22" t="n">
-        <v>142.2928198217421</v>
+        <v>239.9775400498471</v>
       </c>
       <c r="M22" t="n">
         <v>251.0037427684349</v>
       </c>
       <c r="N22" t="n">
-        <v>255.295053951784</v>
+        <v>247.063206855883</v>
       </c>
       <c r="O22" t="n">
         <v>222.7451017596999</v>
@@ -36297,7 +36297,7 @@
         <v>185.4409651794496</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.06147775227207</v>
+        <v>102.2933248481732</v>
       </c>
       <c r="R22" t="n">
         <v>4.219132185003048</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36510,34 +36510,34 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.332299818266925</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034286</v>
+        <v>88.2706087945012</v>
       </c>
       <c r="K25" t="n">
-        <v>185.7171940801506</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L25" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M25" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O25" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.7360003882472</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>8.752567558057692</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>17.59435009195005</v>
+        <v>17.59435009195009</v>
       </c>
       <c r="J26" t="n">
-        <v>249.9582808335885</v>
+        <v>249.9582808335886</v>
       </c>
       <c r="K26" t="n">
-        <v>396.3625664202764</v>
+        <v>396.3625664202766</v>
       </c>
       <c r="L26" t="n">
-        <v>514.7613942572079</v>
+        <v>514.7613942572082</v>
       </c>
       <c r="M26" t="n">
-        <v>598.0923956951026</v>
+        <v>598.0923956951028</v>
       </c>
       <c r="N26" t="n">
-        <v>611.4731152777873</v>
+        <v>611.4731152777875</v>
       </c>
       <c r="O26" t="n">
-        <v>567.2242807530951</v>
+        <v>567.2242807530952</v>
       </c>
       <c r="P26" t="n">
-        <v>457.9332660842476</v>
+        <v>457.9332660842479</v>
       </c>
       <c r="Q26" t="n">
         <v>309.9655846685955</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7844784071007</v>
+        <v>118.7844784071008</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>104.7496964779422</v>
+        <v>71.11345515521893</v>
       </c>
       <c r="K28" t="n">
-        <v>265.2189394091955</v>
+        <v>158.4751730645431</v>
       </c>
       <c r="L28" t="n">
-        <v>216.4539504935197</v>
+        <v>222.6391240367064</v>
       </c>
       <c r="M28" t="n">
-        <v>406.8046592583598</v>
+        <v>406.8046592583599</v>
       </c>
       <c r="N28" t="n">
         <v>404.0282260324161</v>
       </c>
       <c r="O28" t="n">
-        <v>227.3295759633276</v>
+        <v>361.5244100875158</v>
       </c>
       <c r="P28" t="n">
-        <v>294.1283510099864</v>
+        <v>294.1283510099865</v>
       </c>
       <c r="Q28" t="n">
-        <v>137.5655184027696</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,28 +36826,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>17.59435009195008</v>
+        <v>17.59435009195007</v>
       </c>
       <c r="J29" t="n">
         <v>249.9582808335886</v>
       </c>
       <c r="K29" t="n">
-        <v>396.3625664202764</v>
+        <v>396.3625664202765</v>
       </c>
       <c r="L29" t="n">
-        <v>514.7613942572079</v>
+        <v>514.7613942572082</v>
       </c>
       <c r="M29" t="n">
-        <v>598.0923956951026</v>
+        <v>598.0923956951028</v>
       </c>
       <c r="N29" t="n">
-        <v>611.4731152777874</v>
+        <v>611.4731152777875</v>
       </c>
       <c r="O29" t="n">
-        <v>567.2242807530951</v>
+        <v>567.2242807530952</v>
       </c>
       <c r="P29" t="n">
-        <v>457.9332660842477</v>
+        <v>457.9332660842479</v>
       </c>
       <c r="Q29" t="n">
         <v>309.9655846685955</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597766</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>71.11345515521893</v>
+        <v>104.7496964779423</v>
       </c>
       <c r="K31" t="n">
         <v>265.2189394091956</v>
@@ -36996,7 +36996,7 @@
         <v>378.9286520350742</v>
       </c>
       <c r="M31" t="n">
-        <v>372.1559896589733</v>
+        <v>273.1767899584995</v>
       </c>
       <c r="N31" t="n">
         <v>404.0282260324161</v>
@@ -37008,7 +37008,7 @@
         <v>294.1283510099864</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.22256002501824</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>17.5943500919501</v>
+        <v>17.59435009195002</v>
       </c>
       <c r="J32" t="n">
-        <v>249.9582808335886</v>
+        <v>249.9582808335884</v>
       </c>
       <c r="K32" t="n">
         <v>396.3625664202765</v>
       </c>
       <c r="L32" t="n">
-        <v>514.7613942572081</v>
+        <v>514.7613942572082</v>
       </c>
       <c r="M32" t="n">
-        <v>598.0923956951026</v>
+        <v>598.0923956951027</v>
       </c>
       <c r="N32" t="n">
-        <v>611.4731152777873</v>
+        <v>611.4731152777874</v>
       </c>
       <c r="O32" t="n">
         <v>567.2242807530952</v>
       </c>
       <c r="P32" t="n">
-        <v>457.9332660842477</v>
+        <v>457.9332660842479</v>
       </c>
       <c r="Q32" t="n">
         <v>309.9655846685955</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7844784071008</v>
+        <v>118.7844784071007</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>104.7496964779423</v>
+        <v>71.11345515521886</v>
       </c>
       <c r="K34" t="n">
-        <v>265.2189394091956</v>
+        <v>164.6603466077316</v>
       </c>
       <c r="L34" t="n">
-        <v>378.9286520350742</v>
+        <v>216.4539504935197</v>
       </c>
       <c r="M34" t="n">
-        <v>338.5197483362494</v>
+        <v>406.8046592583598</v>
       </c>
       <c r="N34" t="n">
         <v>404.0282260324161</v>
       </c>
       <c r="O34" t="n">
-        <v>198.4827437216333</v>
+        <v>361.5244100875158</v>
       </c>
       <c r="P34" t="n">
         <v>294.1283510099864</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.22256002501825</v>
+        <v>137.5655184027696</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193743</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37458,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266797</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>109.6268955184478</v>
@@ -37473,13 +37473,13 @@
         <v>169.1237184840382</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>259.4525302035636</v>
       </c>
       <c r="O37" t="n">
         <v>236.9961840848622</v>
       </c>
       <c r="P37" t="n">
-        <v>185.0315088932878</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q37" t="n">
         <v>110.7360003882471</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266655</v>
+        <v>1.332299818266797</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034286</v>
+        <v>88.27060879450374</v>
       </c>
       <c r="K40" t="n">
-        <v>196.9886134277718</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121429</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N40" t="n">
-        <v>270.723949551183</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O40" t="n">
-        <v>236.996184084862</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P40" t="n">
-        <v>197.635228059174</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.37971366430652</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057422</v>
+        <v>8.752567558057564</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193747</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>175.6323267038314</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567484</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121429</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N43" t="n">
-        <v>270.723949551183</v>
+        <v>259.4525302035619</v>
       </c>
       <c r="O43" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>197.635228059174</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882469</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38169,10 +38169,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266883</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184479</v>
+        <v>88.27060879450224</v>
       </c>
       <c r="K46" t="n">
         <v>196.988613427772</v>
@@ -38181,22 +38181,22 @@
         <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121432</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>177.6112411534943</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057706</v>
+        <v>8.752567558057649</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
